--- a/workfile/calculations.xlsx
+++ b/workfile/calculations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ISM\workfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{9779D241-BA44-496F-B846-0B86B94B4AA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4EF0D65-19F9-426C-BD34-28FBC076C4F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="13980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parliamentary-general-election-" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'parliamentary-general-election-'!$A$1:$G$1476</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Party Results'!$A$18:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3709,7 +3709,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -4337,9 +4337,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4385,9 +4382,6 @@
     <xf numFmtId="164" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4404,6 +4398,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4633,6 +4633,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4648,6 +4653,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4663,6 +4673,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4678,6 +4693,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4693,6 +4713,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4708,6 +4733,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4725,6 +4755,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4781-4E2C-93E5-D50153E464FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -4947,6 +4982,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4962,6 +5002,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4977,6 +5022,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4992,6 +5042,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5007,6 +5062,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5022,6 +5082,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5039,6 +5104,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1B49-4D7D-9FFD-0CC858A4FCFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -6366,7 +6436,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="virgilxw" refreshedDate="43683.982793981479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1475">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="virgilxw" refreshedDate="43683.982793981479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1475" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1476" sheet="parliamentary-general-election-"/>
   </cacheSource>
@@ -22168,7 +22238,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
@@ -25152,7 +25222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59119,13 +59189,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1476"/>
+  <autoFilter ref="A1:G1476" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59139,11 +59209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -59451,271 +59521,271 @@
       <c r="F26" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>1168</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>1182</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="25" t="s">
         <v>1185</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="26">
         <f>SQRT(0.5*SUM(M32:M38))</f>
         <v>20.785781441711674</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>1179</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="32" t="s">
         <v>1186</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>1188</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="27" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="32" t="s">
+      <c r="I31" s="32"/>
+      <c r="J31" s="30" t="s">
         <v>1192</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="30" t="s">
+      <c r="K31" s="30"/>
+      <c r="L31" s="28" t="s">
         <v>1187</v>
       </c>
-      <c r="M31" s="30"/>
+      <c r="M31" s="28"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>38695</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>0.27848101265822783</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <f>C32/1*$B$41</f>
         <v>6.962025316455696</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>4</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <f>E32/$B$41</f>
         <v>0.16</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="17">
         <f>F32-C32</f>
         <v>-0.11848101265822783</v>
       </c>
-      <c r="I32" s="26"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="3" t="s">
         <v>1193</v>
       </c>
       <c r="K32" s="3">
         <v>17.739999999999998</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="29">
         <f>(C32-F32)*100</f>
         <v>11.848101265822782</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="29">
         <f>L32*L32</f>
         <v>140.37750360519141</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>32115</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>0.25316455696202533</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <f t="shared" ref="D33:D38" si="1">C33/1*$B$41</f>
         <v>6.3291139240506329</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>2</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <f t="shared" ref="F33:F38" si="2">E33/$B$41</f>
         <v>0.08</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="17">
         <f t="shared" ref="G33:G38" si="3">F33-C33</f>
         <v>-0.17316455696202532</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="3" t="s">
         <v>1190</v>
       </c>
       <c r="K33" s="3">
         <v>6.47</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="29">
         <f t="shared" ref="L33:L38" si="4">(C33-F33)*100</f>
         <v>17.316455696202532</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="29">
         <f t="shared" ref="M33:M38" si="5">L33*L33</f>
         <v>299.85963787854513</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>42300</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>0.21518987341772153</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <f t="shared" si="1"/>
         <v>5.3797468354430382</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>10</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <f t="shared" si="3"/>
         <v>0.18481012658227849</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="3" t="s">
         <v>1191</v>
       </c>
       <c r="K34" s="3">
         <v>5.25</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="29">
         <f t="shared" si="4"/>
         <v>-18.481012658227851</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="29">
         <f t="shared" si="5"/>
         <v>341.54782887357806</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>15098</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>0.12658227848101267</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <f t="shared" si="1"/>
         <v>3.1645569620253164</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>3</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <f t="shared" si="3"/>
         <v>-6.5822784810126711E-3</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="3" t="s">
         <v>1194</v>
       </c>
       <c r="K35" s="3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="29">
         <f t="shared" si="4"/>
         <v>0.65822784810126711</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="29">
         <f t="shared" si="5"/>
         <v>0.43326390001602477</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>13157</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>6.3291139240506333E-2</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <f t="shared" si="1"/>
         <v>1.5822784810126582</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>3</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="17">
         <f t="shared" si="3"/>
         <v>5.6708860759493662E-2</v>
       </c>
@@ -59725,37 +59795,37 @@
       <c r="K36" s="3">
         <v>11.72</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="29">
         <f t="shared" si="4"/>
         <v>-5.6708860759493662</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="29">
         <f t="shared" si="5"/>
         <v>32.158948886396402</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="17">
+      <c r="A37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="16">
         <v>13634</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>5.0632911392405063E-2</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <f t="shared" si="1"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>3</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <f t="shared" si="3"/>
         <v>6.936708860759494E-2</v>
       </c>
@@ -59765,74 +59835,74 @@
       <c r="K37" s="3">
         <v>2.79</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="29">
         <f t="shared" si="4"/>
         <v>-6.9367088607594942</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M37" s="29">
         <f t="shared" si="5"/>
         <v>48.117929818939281</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>1325</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <f t="shared" si="1"/>
         <v>0.31645569620253167</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>0</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <f t="shared" si="3"/>
         <v>-1.2658227848101266E-2</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="29">
         <f t="shared" si="4"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="29">
         <f t="shared" si="5"/>
         <v>1.6023073225444642</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>1176</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <f t="shared" ref="B39:C39" si="6">SUM(B32:B38)</f>
         <v>156324</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="24">
         <f>SUM(D32:D38)</f>
         <v>25</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <f>SUM(E32:E38)</f>
         <v>25</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <f>SUM(F32:F38)</f>
         <v>1</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <f>SUMIF(G32:G38,"&gt;0")-SUMIF(G32:G38,"&lt;0")</f>
         <v>0.62177215189873425</v>
       </c>
@@ -59844,14 +59914,14 @@
       <c r="B41" s="3">
         <v>25</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="31" t="s">
         <v>1181</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
